--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585C9091-A317-4506-B7DA-CD050B3D636C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D9B2FC-EAE2-4ED3-963B-99775F8AD46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
+    <sheet name="_base" sheetId="4" r:id="rId2"/>
+    <sheet name="_1" sheetId="2" r:id="rId3"/>
+    <sheet name="_3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
   <si>
     <t>Epoch</t>
   </si>
@@ -105,13 +108,34 @@
   </si>
   <si>
     <t>Influenza virus B RNA [Presence] in Respiratory specimen by NAA with probe detection_observations</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 RNA Pnl Resp NAA+probe_observations</t>
+  </si>
+  <si>
+    <t>Left ventricular Ejection fraction_observations</t>
+  </si>
+  <si>
+    <t>Lymph nodes with isolated tumor cells [#] in Cancer specimen by Light microscopy_observations</t>
+  </si>
+  <si>
+    <t>QALY_observations</t>
+  </si>
+  <si>
+    <t>Protein [Mass/volume] in Serum or Plasma_observations</t>
+  </si>
+  <si>
+    <t>DESCRIPTION_24 HR metoprolol succinate 100 MG Extended Release Oral Tablet [Toprol]_medications</t>
+  </si>
+  <si>
+    <t>NAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +155,18 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,6 +198,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,6 +299,187 @@
         <a:xfrm>
           <a:off x="14775180" y="2011680"/>
           <a:ext cx="5943600" cy="5227955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408839</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="A comparison of a bar graph&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A97862-0A44-359E-D01E-FD99AFE9E385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4747260"/>
+          <a:ext cx="5590439" cy="2774315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>297244</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BCF2FD-F51C-4D9C-8E77-F5116FD52774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5303520"/>
+          <a:ext cx="8062024" cy="4000500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A062119B-3966-F504-DB41-DCD07E9DD080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDE5A0C-26F3-52C3-874A-64DFD3CFA869}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14020800" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EFD04-35FE-4714-B618-05220B3E11BA}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,4 +1531,1046 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C07B0-C0E7-4E5F-B23B-321E2E74D1F0}">
+  <dimension ref="A1:AI10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42289D0-AEF1-40B7-BFAC-2986FCFD2C0B}">
+  <dimension ref="A1:AI25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="C2">
+        <v>4.6345000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="E2">
+        <v>2.2406000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.90793496370315496</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.97568696737289395</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.97527182102203303</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.94172400236129705</v>
+      </c>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2">
+        <v>0.52773587572843605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="C3">
+        <v>2.1598999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1.83</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1930</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.67</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <v>0.35869597454979102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="C4">
+        <v>2.1438999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="E4">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0.98</v>
+      </c>
+      <c r="L4">
+        <v>0.96</v>
+      </c>
+      <c r="M4">
+        <v>0.97</v>
+      </c>
+      <c r="N4">
+        <v>1954</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0.91</v>
+      </c>
+      <c r="Z4">
+        <v>0.91</v>
+      </c>
+      <c r="AA4">
+        <v>0.91</v>
+      </c>
+      <c r="AB4">
+        <v>459</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.9426000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="E5">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0.96</v>
+      </c>
+      <c r="L5">
+        <v>0.95</v>
+      </c>
+      <c r="M5">
+        <v>0.96</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>0.98</v>
+      </c>
+      <c r="Z5">
+        <v>0.95</v>
+      </c>
+      <c r="AA5">
+        <v>0.96</v>
+      </c>
+      <c r="AB5">
+        <v>1989</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI5">
+        <v>0.366212036269219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.861</v>
+      </c>
+      <c r="D6">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="E6">
+        <v>1.5368999999999999</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0.97</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.98</v>
+      </c>
+      <c r="N6">
+        <v>2013</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>0.24</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>0.39</v>
+      </c>
+      <c r="AB6">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI6">
+        <v>0.34935468621694499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="C7">
+        <v>1.7402</v>
+      </c>
+      <c r="D7">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="E7">
+        <v>1.4751000000000001</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7">
+        <v>0.31427624734785298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="C8">
+        <v>1.6422000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="E8">
+        <v>1.5184</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.98</v>
+      </c>
+      <c r="N8">
+        <v>7897</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>0.94</v>
+      </c>
+      <c r="AB8">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="C9">
+        <v>1.5871999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="E9">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>0.98</v>
+      </c>
+      <c r="L9">
+        <v>0.98</v>
+      </c>
+      <c r="M9">
+        <v>0.98</v>
+      </c>
+      <c r="N9">
+        <v>7897</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9">
+        <v>0.7</v>
+      </c>
+      <c r="Z9">
+        <v>0.97</v>
+      </c>
+      <c r="AA9">
+        <v>0.77</v>
+      </c>
+      <c r="AB9">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="C10">
+        <v>1.5201</v>
+      </c>
+      <c r="D10">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="E10">
+        <v>1.4296</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>0.98</v>
+      </c>
+      <c r="L10">
+        <v>0.98</v>
+      </c>
+      <c r="M10">
+        <v>0.98</v>
+      </c>
+      <c r="N10">
+        <v>7897</v>
+      </c>
+      <c r="X10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y10">
+        <v>0.96</v>
+      </c>
+      <c r="Z10">
+        <v>0.94</v>
+      </c>
+      <c r="AA10">
+        <v>0.95</v>
+      </c>
+      <c r="AB10">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.9052</v>
+      </c>
+      <c r="C11">
+        <v>1.4521999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="E11">
+        <v>1.3432999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="C12">
+        <v>1.4101999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="E12">
+        <v>1.2635000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="C13">
+        <v>1.3401000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="E13">
+        <v>1.1668000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.3161</v>
+      </c>
+      <c r="D14">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.3097000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="C15">
+        <v>1.3168</v>
+      </c>
+      <c r="D15">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="E15">
+        <v>1.1802999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="C16">
+        <v>1.3694</v>
+      </c>
+      <c r="D16">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="E16">
+        <v>1.1936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C17">
+        <v>1.2777000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="E17">
+        <v>1.1591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="C18">
+        <v>1.2714000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.9647</v>
+      </c>
+      <c r="E18">
+        <v>1.2535000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C19">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="D19">
+        <v>0.9748</v>
+      </c>
+      <c r="E19">
+        <v>1.0823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="C20">
+        <v>1.2089000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="E20">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="C21">
+        <v>1.1191</v>
+      </c>
+      <c r="D21">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="E21">
+        <v>0.98819999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C22">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="E22">
+        <v>0.99790000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C23">
+        <v>1.1761999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="E23">
+        <v>0.95030000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="C24">
+        <v>1.1474</v>
+      </c>
+      <c r="D24">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.95450000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="C25">
+        <v>1.1309</v>
+      </c>
+      <c r="D25">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.0548999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
+  <dimension ref="A1:AI10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D9B2FC-EAE2-4ED3-963B-99775F8AD46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646AC80E-6F11-428B-8FC9-AA1E70F641A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="32">
   <si>
     <t>Epoch</t>
   </si>
@@ -130,12 +130,18 @@
   <si>
     <t>NAN</t>
   </si>
+  <si>
+    <t>DESCRIPTION_Furosemide 40 MG Oral Tablet_medications</t>
+  </si>
+  <si>
+    <t>REASONDESCRIPTION_Chronic congestive heart failure (disorder)_medications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +174,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Apto'"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,6 +490,143 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14020800" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>512445</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056466CB-85F9-89BB-D33C-48677CA90FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5669280"/>
+          <a:ext cx="11325225" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471DD141-D0DE-7370-ABAE-6BB659DE5EEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1045845</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080FED41-6F45-7E85-F733-A159485CE4DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14470380" y="2011680"/>
           <a:ext cx="7591425" cy="6677025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -810,11 +958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EFD04-35FE-4714-B618-05220B3E11BA}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -822,7 +970,7 @@
     <col min="34" max="34" width="97.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,7 +1079,7 @@
         <v>0.36713268690010897</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -984,7 +1132,7 @@
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1037,7 +1185,7 @@
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1090,7 +1238,7 @@
         <v>0.339970734852024</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1143,7 +1291,7 @@
         <v>0.33790896725134201</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1160,7 +1308,7 @@
         <v>0.80830000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1195,7 +1343,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1242,7 +1390,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1289,7 +1437,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1306,7 +1454,7 @@
         <v>0.59519999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1323,7 +1471,7 @@
         <v>0.69610000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1340,7 +1488,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1357,7 +1505,7 @@
         <v>0.53839999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1374,7 +1522,7 @@
         <v>0.46939999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1391,7 +1539,7 @@
         <v>0.5726</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1408,7 +1556,7 @@
         <v>0.52149999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1425,7 +1573,7 @@
         <v>0.46920000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1442,7 +1590,7 @@
         <v>0.44219999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1459,7 +1607,7 @@
         <v>0.54220000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1476,7 +1624,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1493,7 +1641,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1510,7 +1658,7 @@
         <v>0.46650000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1541,9 +1689,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="J2" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="J3">
         <v>0</v>
       </c>
@@ -1627,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="J4">
         <v>1</v>
       </c>
@@ -1635,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="J5">
         <v>2</v>
       </c>
@@ -1643,7 +1791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="J6">
         <v>3</v>
       </c>
@@ -1651,7 +1799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="J8" t="s">
         <v>1</v>
       </c>
@@ -1659,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="J9" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="J10" t="s">
         <v>15</v>
       </c>
@@ -1684,17 +1832,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42289D0-AEF1-40B7-BFAC-2986FCFD2C0B}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1803,7 +1951,7 @@
         <v>0.52773587572843605</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1856,7 +2004,7 @@
         <v>0.35869597454979102</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1909,7 +2057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1962,7 +2110,7 @@
         <v>0.366212036269219</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2015,7 +2163,7 @@
         <v>0.34935468621694499</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2038,7 +2186,7 @@
         <v>0.31427624734785298</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2073,7 +2221,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2120,7 +2268,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2167,7 +2315,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2184,7 +2332,7 @@
         <v>1.3432999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2201,7 +2349,7 @@
         <v>1.2635000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2218,7 +2366,7 @@
         <v>1.1668000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2235,7 +2383,7 @@
         <v>1.3097000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2252,7 +2400,7 @@
         <v>1.1802999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2269,7 +2417,7 @@
         <v>1.1936</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2286,7 +2434,7 @@
         <v>1.1591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2303,7 +2451,7 @@
         <v>1.2535000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2320,7 +2468,7 @@
         <v>1.0823</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2337,7 +2485,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2354,7 +2502,7 @@
         <v>0.98819999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2371,7 +2519,7 @@
         <v>0.99790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2388,7 +2536,7 @@
         <v>0.95030000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2405,7 +2553,7 @@
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2430,15 +2578,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2635,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.6996</v>
+      </c>
+      <c r="C2">
+        <v>4.2683</v>
+      </c>
+      <c r="D2">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="E2">
+        <v>1.6709000000000001</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.75793915987014704</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.965015709400177</v>
+      </c>
       <c r="J2" t="s">
         <v>12</v>
       </c>
@@ -2498,6 +2672,12 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="U2" s="6">
+        <v>0.82483434677124001</v>
+      </c>
+      <c r="V2">
+        <v>0.93201130628585804</v>
+      </c>
       <c r="X2" t="s">
         <v>12</v>
       </c>
@@ -2513,64 +2693,713 @@
       <c r="AB2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AH2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2">
+        <v>0.493840800776568</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="C3">
+        <v>1.8142</v>
+      </c>
+      <c r="D3">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="E3">
+        <v>1.835</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1895</v>
+      </c>
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>0.67</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3">
+        <v>0.33565442276023399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="C4">
+        <v>1.9503999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.7772</v>
+      </c>
+      <c r="E4">
+        <v>1.8496999999999999</v>
+      </c>
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>0.99</v>
+      </c>
+      <c r="L4">
+        <v>0.95</v>
+      </c>
+      <c r="M4">
+        <v>0.97</v>
+      </c>
+      <c r="N4">
+        <v>1910</v>
+      </c>
       <c r="X4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>0.97</v>
+      </c>
+      <c r="Z4">
+        <v>0.92</v>
+      </c>
+      <c r="AA4">
+        <v>0.94</v>
+      </c>
+      <c r="AB4">
+        <v>459</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4">
+        <v>0.29534238662651702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="C5">
+        <v>1.8505</v>
+      </c>
+      <c r="D5">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.7277</v>
+      </c>
       <c r="J5">
         <v>2</v>
       </c>
+      <c r="K5">
+        <v>0.92</v>
+      </c>
+      <c r="L5">
+        <v>0.95</v>
+      </c>
+      <c r="M5">
+        <v>0.94</v>
+      </c>
+      <c r="N5">
+        <v>1908</v>
+      </c>
       <c r="X5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>0.97</v>
+      </c>
+      <c r="Z5">
+        <v>0.94</v>
+      </c>
+      <c r="AA5">
+        <v>0.96</v>
+      </c>
+      <c r="AB5">
+        <v>1901</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5">
+        <v>0.29452097025195501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="C6">
+        <v>1.6867000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="E6">
+        <v>1.7667999999999999</v>
+      </c>
       <c r="J6">
         <v>3</v>
       </c>
+      <c r="K6">
+        <v>0.95</v>
+      </c>
+      <c r="L6">
+        <v>0.97</v>
+      </c>
+      <c r="M6">
+        <v>0.96</v>
+      </c>
+      <c r="N6">
+        <v>1919</v>
+      </c>
       <c r="X6">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>0.48</v>
+      </c>
+      <c r="Z6">
+        <v>0.76</v>
+      </c>
+      <c r="AA6">
+        <v>0.59</v>
+      </c>
+      <c r="AB6">
+        <v>109</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6">
+        <v>0.28254977520293501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="C7">
+        <v>1.6432</v>
+      </c>
+      <c r="D7">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="E7">
+        <v>1.3731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="C8">
+        <v>1.4877</v>
+      </c>
+      <c r="D8">
+        <v>0.9476</v>
+      </c>
+      <c r="E8">
+        <v>0.4582</v>
+      </c>
       <c r="J8" t="s">
         <v>1</v>
       </c>
+      <c r="M8">
+        <v>0.97</v>
+      </c>
+      <c r="N8">
+        <v>7632</v>
+      </c>
       <c r="X8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AA8">
+        <v>0.93</v>
+      </c>
+      <c r="AB8">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.8891</v>
+      </c>
+      <c r="C9">
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.147</v>
+      </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
+      <c r="K9">
+        <v>0.97</v>
+      </c>
+      <c r="L9">
+        <v>0.97</v>
+      </c>
+      <c r="M9">
+        <v>0.97</v>
+      </c>
+      <c r="N9">
+        <v>7632</v>
+      </c>
       <c r="X9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>0.77</v>
+      </c>
+      <c r="Z9">
+        <v>0.91</v>
+      </c>
+      <c r="AA9">
+        <v>0.82</v>
+      </c>
+      <c r="AB9">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1.3476999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="E10">
+        <v>1.1168</v>
+      </c>
       <c r="J10" t="s">
         <v>15</v>
       </c>
+      <c r="K10">
+        <v>0.97</v>
+      </c>
+      <c r="L10">
+        <v>0.97</v>
+      </c>
+      <c r="M10">
+        <v>0.97</v>
+      </c>
+      <c r="N10">
+        <v>7632</v>
+      </c>
       <c r="X10" t="s">
         <v>15</v>
       </c>
+      <c r="Y10">
+        <v>0.94</v>
+      </c>
+      <c r="Z10">
+        <v>0.93</v>
+      </c>
+      <c r="AA10">
+        <v>0.94</v>
+      </c>
+      <c r="AB10">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="C11">
+        <v>1.3037000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="E11">
+        <v>1.1588000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="C12">
+        <v>1.2808999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="E12">
+        <v>1.1678999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.2211000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="E13">
+        <v>1.1749000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="C14">
+        <v>1.2313000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="E14">
+        <v>0.98229999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.9</v>
+      </c>
+      <c r="C15">
+        <v>1.1546000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.99509999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.1959</v>
+      </c>
+      <c r="D16">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="C17">
+        <v>1.1028</v>
+      </c>
+      <c r="D17">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.93779999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="C18">
+        <v>1.0584</v>
+      </c>
+      <c r="D18">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.9768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="C19">
+        <v>1.0561</v>
+      </c>
+      <c r="D19">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="E19">
+        <v>1.012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="C20">
+        <v>1.0645</v>
+      </c>
+      <c r="D20">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="C21">
+        <v>1.0528999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.85809999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="D22">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.91779999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.9012</v>
+      </c>
+      <c r="C23">
+        <v>1.0099</v>
+      </c>
+      <c r="D23">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.87090000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="C24">
+        <v>1.0345</v>
+      </c>
+      <c r="D24">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="E24">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="C25">
+        <v>0.9708</v>
+      </c>
+      <c r="D25">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="E25">
+        <v>0.75619999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="C26">
+        <v>1.1533</v>
+      </c>
+      <c r="D26">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="E26">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="C27">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.9607</v>
+      </c>
+      <c r="E27">
+        <v>0.8468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="C28">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="D28">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.80530000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="C29">
+        <v>0.9395</v>
+      </c>
+      <c r="D29">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="E29">
+        <v>0.8266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="D30">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.77739999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551AFC42-E4B1-4773-93B4-8C961E32DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37FCAD-9B37-4A1D-B772-0E05B657E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
-    <sheet name="_base" sheetId="4" r:id="rId2"/>
+    <sheet name="_0.5" sheetId="4" r:id="rId2"/>
     <sheet name="_1" sheetId="2" r:id="rId3"/>
     <sheet name="_3" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
   <si>
     <t>Epoch</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Training Loss</t>
+  </si>
+  <si>
+    <t>AGE_patients</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1862,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Randomized Data (e = 1)</a:t>
+              <a:t> Randomized Data (e = 0.5)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1905,7 +1908,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>_1!$B$1</c:f>
+              <c:f>'_0.5'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1928,81 +1931,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>_1!$B$2:$B$25</c:f>
+              <c:f>'_0.5'!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.73540000000000005</c:v>
+                  <c:v>0.70279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84619999999999995</c:v>
+                  <c:v>0.80120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87009999999999998</c:v>
+                  <c:v>0.82399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88690000000000002</c:v>
+                  <c:v>0.83620000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89510000000000001</c:v>
+                  <c:v>0.85750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89759999999999995</c:v>
+                  <c:v>0.86009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89670000000000005</c:v>
+                  <c:v>0.86270000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90290000000000004</c:v>
+                  <c:v>0.86980000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90580000000000005</c:v>
+                  <c:v>0.88360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9052</c:v>
+                  <c:v>0.87150000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90880000000000005</c:v>
+                  <c:v>0.87539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91100000000000003</c:v>
+                  <c:v>0.87909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.91520000000000001</c:v>
+                  <c:v>0.88119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91600000000000004</c:v>
+                  <c:v>0.87970000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.90710000000000002</c:v>
+                  <c:v>0.87929999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.91249999999999998</c:v>
+                  <c:v>0.87760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.91159999999999997</c:v>
+                  <c:v>0.8851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91249999999999998</c:v>
+                  <c:v>0.88270000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.91200000000000003</c:v>
+                  <c:v>0.88190000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91659999999999997</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.91700000000000004</c:v>
+                  <c:v>0.88649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.88290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91239999999999999</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.91779999999999995</c:v>
+                  <c:v>0.88009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.87870000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.8901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.88380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.8871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88239999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88239999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88349999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.88629999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,7 +2058,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+              <c16:uniqueId val="{00000000-D497-456E-92DB-CC65F9BA66BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2019,7 +2067,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>_1!$D$1</c:f>
+              <c:f>'_0.5'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2042,81 +2090,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>_1!$D$2:$D$25</c:f>
+              <c:f>'_0.5'!$D$2:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.76180000000000003</c:v>
+                  <c:v>0.73729999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90190000000000003</c:v>
+                  <c:v>0.82530000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96330000000000005</c:v>
+                  <c:v>0.84379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95309999999999995</c:v>
+                  <c:v>0.91739999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96740000000000004</c:v>
+                  <c:v>0.92710000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96279999999999999</c:v>
+                  <c:v>0.86129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96040000000000003</c:v>
+                  <c:v>0.93359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95550000000000002</c:v>
+                  <c:v>0.91200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.96930000000000005</c:v>
+                  <c:v>0.93810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0.9234</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.96440000000000003</c:v>
+                  <c:v>0.93810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97550000000000003</c:v>
+                  <c:v>0.94489999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96260000000000001</c:v>
+                  <c:v>0.93610000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96330000000000005</c:v>
+                  <c:v>0.94430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.96819999999999995</c:v>
+                  <c:v>0.95069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97070000000000001</c:v>
+                  <c:v>0.94530000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9647</c:v>
+                  <c:v>0.94269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9748</c:v>
+                  <c:v>0.94430000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.97850000000000004</c:v>
+                  <c:v>0.94779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.96530000000000005</c:v>
+                  <c:v>0.92249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97529999999999994</c:v>
+                  <c:v>0.94440000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.96519999999999995</c:v>
+                  <c:v>0.94220000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.97260000000000002</c:v>
+                  <c:v>0.90820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97589999999999999</c:v>
+                  <c:v>0.94720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94830000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.94069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9415</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87529999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.94259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94440000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,7 +2217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+              <c16:uniqueId val="{00000001-D497-456E-92DB-CC65F9BA66BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2150,7 +2243,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>_1!$A$1</c15:sqref>
+                          <c15:sqref>'_0.5'!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2179,13 +2272,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>_1!$A$2:$A$25</c15:sqref>
+                          <c15:sqref>'_0.5'!$A$2:$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -2257,6 +2350,51 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2264,7 +2402,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+                    <c16:uniqueId val="{00000002-D497-456E-92DB-CC65F9BA66BD}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2653,7 +2791,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> and Validation Loss for Randomized Data (e = 1)</a:t>
+              <a:t> and Validation Loss for Randomized Data (e = 0.5)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -2699,7 +2837,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>_1!$C$1</c:f>
+              <c:f>'_0.5'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2722,81 +2860,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>_1!$C$2:$C$25</c:f>
+              <c:f>'_0.5'!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>4.6345000000000001</c:v>
+                  <c:v>4.6589</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1598999999999999</c:v>
+                  <c:v>2.1211000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1438999999999999</c:v>
+                  <c:v>1.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9426000000000001</c:v>
+                  <c:v>2.1204999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.861</c:v>
+                  <c:v>1.9272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7402</c:v>
+                  <c:v>1.7718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6422000000000001</c:v>
+                  <c:v>1.6573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5871999999999999</c:v>
+                  <c:v>1.5462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5201</c:v>
+                  <c:v>1.4168000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4521999999999999</c:v>
+                  <c:v>1.4147000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4101999999999999</c:v>
+                  <c:v>1.3657999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3401000000000001</c:v>
+                  <c:v>1.3109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3161</c:v>
+                  <c:v>1.2665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3168</c:v>
+                  <c:v>1.254</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3694</c:v>
+                  <c:v>1.1632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2777000000000001</c:v>
+                  <c:v>1.1983999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2714000000000001</c:v>
+                  <c:v>1.2105999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2856000000000001</c:v>
+                  <c:v>1.1291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2089000000000001</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1191</c:v>
+                  <c:v>1.1117999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.1708000000000001</c:v>
+                  <c:v>1.0895999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1761999999999999</c:v>
+                  <c:v>1.0868</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1474</c:v>
+                  <c:v>1.0705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1309</c:v>
+                  <c:v>1.1263000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0565</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0763</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0322</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0057</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.96919999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.97119999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9446</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.92349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9516</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94359999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2804,7 +2987,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CCB-4D43-840B-6E7EB6D904F1}"/>
+              <c16:uniqueId val="{00000000-16CA-4A0D-A000-1F0EA2E334B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2813,7 +2996,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>_1!$E$1</c:f>
+              <c:f>'_0.5'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2836,81 +3019,126 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>_1!$E$2:$E$25</c:f>
+              <c:f>'_0.5'!$E$2:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>2.2406000000000001</c:v>
+                  <c:v>1.9907999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.83</c:v>
+                  <c:v>1.8569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6679999999999999</c:v>
+                  <c:v>2.0838999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8009999999999999</c:v>
+                  <c:v>1.9516</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5368999999999999</c:v>
+                  <c:v>1.5639000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4751000000000001</c:v>
+                  <c:v>1.7273000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5184</c:v>
+                  <c:v>1.5631999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5640000000000001</c:v>
+                  <c:v>1.4532</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4296</c:v>
+                  <c:v>1.2464999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3432999999999999</c:v>
+                  <c:v>1.2950999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2635000000000001</c:v>
+                  <c:v>1.2444999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1668000000000001</c:v>
+                  <c:v>1.103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3097000000000001</c:v>
+                  <c:v>1.1073</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1802999999999999</c:v>
+                  <c:v>1.0731999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1936</c:v>
+                  <c:v>1.0071000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1591</c:v>
+                  <c:v>1.0667</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2535000000000001</c:v>
+                  <c:v>0.99129999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0823</c:v>
+                  <c:v>1.0126999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.90249999999999997</c:v>
+                  <c:v>1.0987</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98819999999999997</c:v>
+                  <c:v>1.0179</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99790000000000001</c:v>
+                  <c:v>0.90400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.95030000000000003</c:v>
+                  <c:v>0.90839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95450000000000002</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0548999999999999</c:v>
+                  <c:v>0.89119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.91569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8478</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85350000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.84889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.81669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.86160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82650000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,7 +3146,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CCB-4D43-840B-6E7EB6D904F1}"/>
+              <c16:uniqueId val="{00000001-16CA-4A0D-A000-1F0EA2E334B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2944,7 +3172,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>_1!$A$1</c15:sqref>
+                          <c15:sqref>'_0.5'!$A$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2973,13 +3201,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>_1!$A$2:$A$25</c15:sqref>
+                          <c15:sqref>'_0.5'!$A$2:$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="24"/>
+                      <c:ptCount val="39"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -3051,6 +3279,51 @@
                       </c:pt>
                       <c:pt idx="23">
                         <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3058,7 +3331,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-7CCB-4D43-840B-6E7EB6D904F1}"/>
+                    <c16:uniqueId val="{00000002-16CA-4A0D-A000-1F0EA2E334B6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3446,6 +3719,1593 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Randomized Data (e = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>_1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.73540000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89759999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90290000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90580000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9052</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91520000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90710000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.91239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91779999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>_1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.76180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96040000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.96440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.96260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9647</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97850000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96530000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96519999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97589999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="310304319"/>
+        <c:axId val="310295199"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>_1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Epoch</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>_1!$A$2:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-ABC6-4769-8BFC-B0EEDBCC7BEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="310304319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310295199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="310295199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310304319"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> and Validation Loss for Randomized Data (e = 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Training Loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>_1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.6345000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1598999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1438999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9426000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.861</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6422000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5871999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4521999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4101999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3401000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3694</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2777000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2714000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2856000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2089000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1191</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1708000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1761999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CCB-4D43-840B-6E7EB6D904F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>_1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Validation loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>_1!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.2406000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5368999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4751000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3432999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2635000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1668000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3097000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1591</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2535000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90249999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.95450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0548999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CCB-4D43-840B-6E7EB6D904F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="623311055"/>
+        <c:axId val="623305295"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>_1!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Epoch</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>_1!$A$2:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="24"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7CCB-4D43-840B-6E7EB6D904F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="623311055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623305295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="623305295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Loss</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="623311055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Training and Validation Accuracy for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
               <a:t> Randomized Data (e = 3)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
@@ -4246,7 +6106,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5324,6 +7184,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7905,6 +9845,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8633,6 +11605,219 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5CF7F2-A823-C3E0-6FC2-0C9C1069BB96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249311</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFABD801-5967-4EAD-A438-62A54F7C5E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="8763000"/>
+          <a:ext cx="8776090" cy="4354830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1045845</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F722A44-240C-CE01-93C9-690B88566A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15841980" y="2011680"/>
+          <a:ext cx="7591425" cy="6677025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423779</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>30279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1225EBD-90B0-45F1-AFFD-2325BCC99AC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50399</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>91239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE6F3C1-C0B3-49E7-9FDF-EA05B0449D31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -8842,7 +12027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10120,10 +13305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C07B0-C0E7-4E5F-B23B-321E2E74D1F0}">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10133,6 +13318,10 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="89.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
@@ -10180,6 +13369,27 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="C2">
+        <v>4.6589</v>
+      </c>
+      <c r="D2">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="E2">
+        <v>1.9907999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.77549749612808205</v>
+      </c>
+      <c r="H2">
+        <v>0.95282763242721502</v>
+      </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
@@ -10195,6 +13405,12 @@
       <c r="N2" t="s">
         <v>8</v>
       </c>
+      <c r="U2">
+        <v>0.874700307846069</v>
+      </c>
+      <c r="V2">
+        <v>0.89154189825057895</v>
+      </c>
       <c r="X2" t="s">
         <v>9</v>
       </c>
@@ -10210,65 +13426,884 @@
       <c r="AB2" t="s">
         <v>8</v>
       </c>
+      <c r="AH2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2">
+        <v>0.48938199127091703</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="C3">
+        <v>2.1211000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1.8569</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1816</v>
+      </c>
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0.33</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.5</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3">
+        <v>0.31841088853322302</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C4">
+        <v>1.93</v>
+      </c>
+      <c r="D4">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.0838999999999999</v>
+      </c>
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>0.98</v>
+      </c>
+      <c r="L4">
+        <v>0.97</v>
+      </c>
+      <c r="M4">
+        <v>0.98</v>
+      </c>
+      <c r="N4">
+        <v>1822</v>
+      </c>
       <c r="X4">
         <v>1</v>
       </c>
+      <c r="Y4">
+        <v>0.93</v>
+      </c>
+      <c r="Z4">
+        <v>0.95</v>
+      </c>
+      <c r="AA4">
+        <v>0.94</v>
+      </c>
+      <c r="AB4">
+        <v>459</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4">
+        <v>0.27902730510413198</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C5">
+        <v>2.1204999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="E5">
+        <v>1.9516</v>
+      </c>
       <c r="J5">
         <v>2</v>
       </c>
+      <c r="K5">
+        <v>0.91</v>
+      </c>
+      <c r="L5">
+        <v>0.91</v>
+      </c>
+      <c r="M5">
+        <v>0.91</v>
+      </c>
+      <c r="N5">
+        <v>1863</v>
+      </c>
       <c r="X5">
         <v>2</v>
       </c>
+      <c r="Y5">
+        <v>0.96</v>
+      </c>
+      <c r="Z5">
+        <v>0.9</v>
+      </c>
+      <c r="AA5">
+        <v>0.93</v>
+      </c>
+      <c r="AB5">
+        <v>1836</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5">
+        <v>0.27615427695811101</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C6">
+        <v>1.9272</v>
+      </c>
+      <c r="D6">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="E6">
+        <v>1.5639000000000001</v>
+      </c>
       <c r="J6">
         <v>3</v>
       </c>
+      <c r="K6">
+        <v>0.92</v>
+      </c>
+      <c r="L6">
+        <v>0.93</v>
+      </c>
+      <c r="M6">
+        <v>0.93</v>
+      </c>
+      <c r="N6">
+        <v>1855</v>
+      </c>
       <c r="X6">
         <v>3</v>
       </c>
+      <c r="Y6">
+        <v>0.43</v>
+      </c>
+      <c r="Z6">
+        <v>0.67</v>
+      </c>
+      <c r="AA6">
+        <v>0.52</v>
+      </c>
+      <c r="AB6">
+        <v>174</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6">
+        <v>0.27615427695811101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C7">
+        <v>1.7718</v>
+      </c>
+      <c r="D7">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="E7">
+        <v>1.7273000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="C8">
+        <v>1.6573</v>
+      </c>
+      <c r="D8">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.5631999999999999</v>
+      </c>
       <c r="J8" t="s">
         <v>1</v>
       </c>
+      <c r="M8">
+        <v>0.95</v>
+      </c>
+      <c r="N8">
+        <v>7356</v>
+      </c>
       <c r="X8" t="s">
         <v>1</v>
       </c>
+      <c r="AA8">
+        <v>0.89</v>
+      </c>
+      <c r="AB8">
+        <v>2471</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.5462</v>
+      </c>
+      <c r="D9">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E9">
+        <v>1.4532</v>
+      </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
+      <c r="K9">
+        <v>0.95</v>
+      </c>
+      <c r="L9">
+        <v>0.95</v>
+      </c>
+      <c r="M9">
+        <v>0.95</v>
+      </c>
+      <c r="N9">
+        <v>7356</v>
+      </c>
       <c r="X9" t="s">
         <v>11</v>
       </c>
+      <c r="Y9">
+        <v>0.66</v>
+      </c>
+      <c r="Z9">
+        <v>0.88</v>
+      </c>
+      <c r="AA9">
+        <v>0.72</v>
+      </c>
+      <c r="AB9">
+        <v>2471</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="C10">
+        <v>1.4168000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E10">
+        <v>1.2464999999999999</v>
+      </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
+      <c r="K10">
+        <v>0.95</v>
+      </c>
+      <c r="L10">
+        <v>0.95</v>
+      </c>
+      <c r="M10">
+        <v>0.95</v>
+      </c>
+      <c r="N10">
+        <v>7356</v>
+      </c>
       <c r="X10" t="s">
         <v>12</v>
+      </c>
+      <c r="Y10">
+        <v>0.91</v>
+      </c>
+      <c r="Z10">
+        <v>0.89</v>
+      </c>
+      <c r="AA10">
+        <v>0.9</v>
+      </c>
+      <c r="AB10">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="C11">
+        <v>1.4147000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.9234</v>
+      </c>
+      <c r="E11">
+        <v>1.2950999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="C12">
+        <v>1.3657999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E12">
+        <v>1.2444999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="E13">
+        <v>1.103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="C14">
+        <v>1.2665</v>
+      </c>
+      <c r="D14">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="E14">
+        <v>1.1073</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="C15">
+        <v>1.254</v>
+      </c>
+      <c r="D15">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="E15">
+        <v>1.0731999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="C16">
+        <v>1.1632</v>
+      </c>
+      <c r="D16">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1.0071000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="C17">
+        <v>1.1983999999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="E17">
+        <v>1.0667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.8851</v>
+      </c>
+      <c r="C18">
+        <v>1.2105999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="C19">
+        <v>1.1291</v>
+      </c>
+      <c r="D19">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="E19">
+        <v>1.0126999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="C20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="E20">
+        <v>1.0987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.1117999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.0179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="C22">
+        <v>1.0895999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E22">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="C23">
+        <v>1.0868</v>
+      </c>
+      <c r="D23">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.90839999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1.0705</v>
+      </c>
+      <c r="D24">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="E24">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="C25">
+        <v>1.1263000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.89119999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="C26">
+        <v>1.0565</v>
+      </c>
+      <c r="D26">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E26">
+        <v>0.91569999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.8901</v>
+      </c>
+      <c r="C27">
+        <v>1.0041</v>
+      </c>
+      <c r="D27">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="E27">
+        <v>0.87819999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="C28">
+        <v>1.0763</v>
+      </c>
+      <c r="D28">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="E28">
+        <v>0.8478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="C29">
+        <v>1.0322</v>
+      </c>
+      <c r="D29">
+        <v>0.9415</v>
+      </c>
+      <c r="E29">
+        <v>0.82730000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="C30">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="E30">
+        <v>0.84450000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C31">
+        <v>1.0057</v>
+      </c>
+      <c r="D31">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E31">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.8871</v>
+      </c>
+      <c r="C32">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.9466</v>
+      </c>
+      <c r="E32">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="D33">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="E33">
+        <v>0.85350000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="C34">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="C35">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E35">
+        <v>0.76670000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.9446</v>
+      </c>
+      <c r="D36">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.84889999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="C38">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="E38">
+        <v>0.81669999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.9516</v>
+      </c>
+      <c r="D39">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.86160000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E40">
+        <v>0.82650000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11028,7 +15063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="48" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="48" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37FCAD-9B37-4A1D-B772-0E05B657E6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB029C7-D7C8-48F3-B52B-96597867F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
     <sheet name="_0.5" sheetId="4" r:id="rId2"/>
     <sheet name="_1" sheetId="2" r:id="rId3"/>
     <sheet name="_3" sheetId="3" r:id="rId4"/>
+    <sheet name="Combined" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
   <si>
     <t>Epoch</t>
   </si>
@@ -142,12 +143,39 @@
   <si>
     <t>AGE_patients</t>
   </si>
+  <si>
+    <t>Smote Dataset</t>
+  </si>
+  <si>
+    <t>SMOTE</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>e = 0.5</t>
+  </si>
+  <si>
+    <t>e = 3</t>
+  </si>
+  <si>
+    <t>e = 1</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>SMOTE Dataset</t>
+  </si>
+  <si>
+    <t>Original Dataset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,6 +248,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -231,12 +268,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12254,6 +12295,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8FB9CF3D-1CDB-4552-B4EA-C155C7B57113}" name="Table16" displayName="Table16" ref="P2:T26" totalsRowShown="0">
+  <autoFilter ref="P2:T26" xr:uid="{8FB9CF3D-1CDB-4552-B4EA-C155C7B57113}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{CB7FA4F4-988A-418A-8EAB-758A5BC38E77}" name="Epoch"/>
+    <tableColumn id="2" xr3:uid="{F4B334F9-D317-4064-A183-C4DF0F8947AE}" name="Training Accuracy"/>
+    <tableColumn id="3" xr3:uid="{37C45724-26CF-4BD0-BA28-87D0FA4C1553}" name="Training Loss"/>
+    <tableColumn id="4" xr3:uid="{28E1592E-4D47-4F51-A05A-1C23EC19137F}" name="Validation Accuracy"/>
+    <tableColumn id="5" xr3:uid="{CA7C2B5D-F517-4DDC-BBED-8489D14E87FD}" name="Validation loss"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -12573,11 +12628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EFD04-35FE-4714-B618-05220B3E11BA}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
@@ -12589,7 +12644,7 @@
     <col min="34" max="34" width="97.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12606,10 +12661,10 @@
         <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -12623,17 +12678,20 @@
       <c r="V1" t="s">
         <v>3</v>
       </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
       <c r="AI1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12649,11 +12707,11 @@
       <c r="E2">
         <v>1.6296999999999999</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.442369043827056</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.96765619516372603</v>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -12691,14 +12749,14 @@
       <c r="AB2" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AI2" s="1">
         <v>0.36713268690010897</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12714,6 +12772,12 @@
       <c r="E3">
         <v>1.0006999999999999</v>
       </c>
+      <c r="G3" s="2">
+        <v>0.442369043827056</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.96765619516372603</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -12744,14 +12808,14 @@
       <c r="AB3">
         <v>74</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AI3" s="1">
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12797,14 +12861,14 @@
       <c r="AB4">
         <v>387</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AI4" s="1">
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12850,14 +12914,14 @@
       <c r="AB5">
         <v>297</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AH5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AI5" s="3">
         <v>0.339970734852024</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12903,14 +12967,14 @@
       <c r="AB6">
         <v>1713</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AH6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AI6" s="1">
         <v>0.33790896725134201</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12927,7 +12991,7 @@
         <v>0.80830000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12962,7 +13026,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13009,7 +13073,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13056,7 +13120,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13073,7 +13137,7 @@
         <v>0.59519999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13090,7 +13154,7 @@
         <v>0.69610000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13107,7 +13171,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13124,7 +13188,7 @@
         <v>0.53839999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13141,7 +13205,7 @@
         <v>0.46939999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13158,7 +13222,7 @@
         <v>0.5726</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13175,7 +13239,7 @@
         <v>0.52149999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13192,7 +13256,7 @@
         <v>0.46920000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13209,7 +13273,7 @@
         <v>0.44219999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13226,7 +13290,7 @@
         <v>0.54220000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13243,7 +13307,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13260,7 +13324,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13277,7 +13341,7 @@
         <v>0.46650000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13307,11 +13371,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C07B0-C0E7-4E5F-B23B-321E2E74D1F0}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -13324,20 +13388,20 @@
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
@@ -13361,14 +13425,14 @@
       <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
       <c r="AI1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13433,7 +13497,7 @@
         <v>0.48938199127091703</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13486,7 +13550,7 @@
         <v>0.31841088853322302</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13539,7 +13603,7 @@
         <v>0.27902730510413198</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13592,7 +13656,7 @@
         <v>0.27615427695811101</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13645,7 +13709,7 @@
         <v>0.27615427695811101</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13662,7 +13726,7 @@
         <v>1.7273000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13697,7 +13761,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13744,7 +13808,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13791,7 +13855,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13808,7 +13872,7 @@
         <v>1.2950999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13825,7 +13889,7 @@
         <v>1.2444999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13842,7 +13906,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13859,7 +13923,7 @@
         <v>1.1073</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13876,7 +13940,7 @@
         <v>1.0731999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13893,7 +13957,7 @@
         <v>1.0071000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13910,7 +13974,7 @@
         <v>1.0667</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13927,7 +13991,7 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13944,7 +14008,7 @@
         <v>1.0126999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13961,7 +14025,7 @@
         <v>1.0987</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13978,7 +14042,7 @@
         <v>1.0179</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13995,7 +14059,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14012,7 +14076,7 @@
         <v>0.90839999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14029,7 +14093,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14046,7 +14110,7 @@
         <v>0.89119999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14063,7 +14127,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14080,7 +14144,7 @@
         <v>0.87819999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14097,7 +14161,7 @@
         <v>0.8478</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14114,7 +14178,7 @@
         <v>0.82730000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14131,7 +14195,7 @@
         <v>0.84450000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14148,7 +14212,7 @@
         <v>0.98719999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14165,7 +14229,7 @@
         <v>0.82069999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14182,7 +14246,7 @@
         <v>0.85350000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14199,7 +14263,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14216,7 +14280,7 @@
         <v>0.76670000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14233,7 +14297,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14250,7 +14314,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14267,7 +14331,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14284,7 +14348,7 @@
         <v>0.86160000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14311,11 +14375,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42289D0-AEF1-40B7-BFAC-2986FCFD2C0B}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -14325,20 +14389,20 @@
     <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
@@ -14362,14 +14426,14 @@
       <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
       <c r="AI1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14385,10 +14449,10 @@
       <c r="E2">
         <v>2.2406000000000001</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>0.90793496370315496</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>0.97568696737289395</v>
       </c>
       <c r="J2" t="s">
@@ -14406,10 +14470,10 @@
       <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <v>0.97527182102203303</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="4">
         <v>0.94172400236129705</v>
       </c>
       <c r="X2" t="s">
@@ -14434,7 +14498,7 @@
         <v>0.52773587572843605</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14487,7 +14551,7 @@
         <v>0.35869597454979102</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14540,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14593,7 +14657,7 @@
         <v>0.366212036269219</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14646,7 +14710,7 @@
         <v>0.34935468621694499</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14669,7 +14733,7 @@
         <v>0.31427624734785298</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14704,7 +14768,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14751,7 +14815,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14798,7 +14862,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14815,7 +14879,7 @@
         <v>1.3432999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14832,7 +14896,7 @@
         <v>1.2635000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14849,7 +14913,7 @@
         <v>1.1668000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14866,7 +14930,7 @@
         <v>1.3097000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14883,7 +14947,7 @@
         <v>1.1802999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14900,7 +14964,7 @@
         <v>1.1936</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14917,7 +14981,7 @@
         <v>1.1591</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14934,7 +14998,7 @@
         <v>1.2535000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14951,7 +15015,7 @@
         <v>1.0823</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14968,7 +15032,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14985,7 +15049,7 @@
         <v>0.98819999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15002,7 +15066,7 @@
         <v>0.99790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15019,7 +15083,7 @@
         <v>0.95030000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15036,7 +15100,7 @@
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15063,11 +15127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="48" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -15078,20 +15142,20 @@
     <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G1" t="s">
@@ -15115,14 +15179,14 @@
       <c r="Y1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s">
         <v>13</v>
       </c>
       <c r="AI1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15138,10 +15202,10 @@
       <c r="E2">
         <v>1.6709000000000001</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>0.75793915987014704</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>0.965015709400177</v>
       </c>
       <c r="J2" t="s">
@@ -15159,7 +15223,7 @@
       <c r="N2" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <v>0.82483434677124001</v>
       </c>
       <c r="V2">
@@ -15187,7 +15251,7 @@
         <v>0.493840800776568</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15240,7 +15304,7 @@
         <v>0.33565442276023399</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15293,7 +15357,7 @@
         <v>0.29534238662651702</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15346,7 +15410,7 @@
         <v>0.29452097025195501</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15399,7 +15463,7 @@
         <v>0.28254977520293501</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15416,7 +15480,7 @@
         <v>1.3731</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15451,7 +15515,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15498,7 +15562,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15545,7 +15609,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15562,7 +15626,7 @@
         <v>1.1588000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15579,7 +15643,7 @@
         <v>1.1678999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15596,7 +15660,7 @@
         <v>1.1749000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15613,7 +15677,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15630,7 +15694,7 @@
         <v>0.99509999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15647,7 +15711,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15664,7 +15728,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15681,7 +15745,7 @@
         <v>0.9768</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15698,7 +15762,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15715,7 +15779,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15732,7 +15796,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15749,7 +15813,7 @@
         <v>0.91779999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15766,7 +15830,7 @@
         <v>0.87090000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15783,7 +15847,7 @@
         <v>0.8256</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15800,7 +15864,7 @@
         <v>0.75619999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15817,7 +15881,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15834,7 +15898,7 @@
         <v>0.8468</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15851,7 +15915,7 @@
         <v>0.80530000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15868,7 +15932,7 @@
         <v>0.8266</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15889,4 +15953,3138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2E949-DD3C-4392-9676-2535014FB9C1}">
+  <dimension ref="A1:AP42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V3" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18:AP28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="W1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="C3">
+        <v>4.6589</v>
+      </c>
+      <c r="D3">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="E3">
+        <v>1.9907999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.73540000000000005</v>
+      </c>
+      <c r="H3">
+        <v>4.6345000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J3">
+        <v>2.2406000000000001</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.6996</v>
+      </c>
+      <c r="M3">
+        <v>4.2683</v>
+      </c>
+      <c r="N3">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="O3">
+        <v>1.6709000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.81330000000000002</v>
+      </c>
+      <c r="R3">
+        <v>4.1600999999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="T3">
+        <v>1.6296999999999999</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="C4">
+        <v>2.1211000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="E4">
+        <v>1.8569</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.84619999999999995</v>
+      </c>
+      <c r="H4">
+        <v>2.1598999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="J4">
+        <v>1.83</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="M4">
+        <v>1.8142</v>
+      </c>
+      <c r="N4">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="O4">
+        <v>1.835</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="R4">
+        <v>1.3181</v>
+      </c>
+      <c r="S4">
+        <v>0.95750000000000002</v>
+      </c>
+      <c r="T4">
+        <v>1.0006999999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.442369043827056</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.96765619516372603</v>
+      </c>
+      <c r="Y4">
+        <v>0.77549749612808205</v>
+      </c>
+      <c r="Z4">
+        <v>0.95282763242721502</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.90793496370315496</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.97568696737289395</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0.75793915987014704</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0.965015709400177</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.49169352650642301</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.96681505441665605</v>
+      </c>
+      <c r="AG4">
+        <v>0.874700307846069</v>
+      </c>
+      <c r="AH4">
+        <v>0.89154189825057895</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.97527182102203303</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0.94172400236129705</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0.82483434677124001</v>
+      </c>
+      <c r="AL4">
+        <v>0.93201130628585804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C5">
+        <v>1.93</v>
+      </c>
+      <c r="D5">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.0838999999999999</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="H5">
+        <v>2.1438999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="J5">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0.83350000000000002</v>
+      </c>
+      <c r="M5">
+        <v>1.9503999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.7772</v>
+      </c>
+      <c r="O5">
+        <v>1.8496999999999999</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="R5">
+        <v>1.2493000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="C6">
+        <v>2.1204999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.9516</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="H6">
+        <v>1.9426000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="J6">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="M6">
+        <v>1.8505</v>
+      </c>
+      <c r="N6">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="O6">
+        <v>1.7277</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0.91459999999999997</v>
+      </c>
+      <c r="R6">
+        <v>1.1557999999999999</v>
+      </c>
+      <c r="S6">
+        <v>0.95379999999999998</v>
+      </c>
+      <c r="T6">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="C7">
+        <v>1.9272</v>
+      </c>
+      <c r="D7">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="E7">
+        <v>1.5639000000000001</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.861</v>
+      </c>
+      <c r="I7">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="J7">
+        <v>1.5368999999999999</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="M7">
+        <v>1.6867000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.7667999999999999</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>0.92259999999999998</v>
+      </c>
+      <c r="R7">
+        <v>1.0786</v>
+      </c>
+      <c r="S7">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="T7">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="C8">
+        <v>1.7718</v>
+      </c>
+      <c r="D8">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="E8">
+        <v>1.7273000000000001</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0.89759999999999995</v>
+      </c>
+      <c r="H8">
+        <v>1.7402</v>
+      </c>
+      <c r="I8">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="J8">
+        <v>1.4751000000000001</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="M8">
+        <v>1.6432</v>
+      </c>
+      <c r="N8">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="O8">
+        <v>1.3731</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.9929</v>
+      </c>
+      <c r="S8">
+        <v>0.95589999999999997</v>
+      </c>
+      <c r="T8">
+        <v>0.80830000000000002</v>
+      </c>
+      <c r="W8" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.86270000000000002</v>
+      </c>
+      <c r="C9">
+        <v>1.6573</v>
+      </c>
+      <c r="D9">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.5631999999999999</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="H9">
+        <v>1.6422000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="J9">
+        <v>1.5184</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="M9">
+        <v>1.4877</v>
+      </c>
+      <c r="N9">
+        <v>0.9476</v>
+      </c>
+      <c r="O9">
+        <v>1.4581999999999999</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="T9">
+        <v>0.6542</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>0.99</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1692</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1816</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1930</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1.5462</v>
+      </c>
+      <c r="D10">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E10">
+        <v>1.4532</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="H10">
+        <v>1.5871999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.95550000000000002</v>
+      </c>
+      <c r="J10">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>0.8891</v>
+      </c>
+      <c r="M10">
+        <v>1.4484999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="O10">
+        <v>1.147</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="R10">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="T10">
+        <v>0.61339999999999995</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.99</v>
+      </c>
+      <c r="Y10">
+        <v>0.97</v>
+      </c>
+      <c r="Z10">
+        <v>0.98</v>
+      </c>
+      <c r="AA10">
+        <v>1672</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>0.98</v>
+      </c>
+      <c r="AD10">
+        <v>0.97</v>
+      </c>
+      <c r="AE10">
+        <v>0.98</v>
+      </c>
+      <c r="AF10">
+        <v>1822</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0.98</v>
+      </c>
+      <c r="AI10">
+        <v>0.96</v>
+      </c>
+      <c r="AJ10">
+        <v>0.97</v>
+      </c>
+      <c r="AK10">
+        <v>1954</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>0.99</v>
+      </c>
+      <c r="AN10">
+        <v>0.95</v>
+      </c>
+      <c r="AO10">
+        <v>0.97</v>
+      </c>
+      <c r="AP10">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="C11">
+        <v>1.4168000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E11">
+        <v>1.2464999999999999</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.90580000000000005</v>
+      </c>
+      <c r="H11">
+        <v>1.5201</v>
+      </c>
+      <c r="I11">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="J11">
+        <v>1.4296</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M11">
+        <v>1.3476999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="O11">
+        <v>1.1168</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.9657</v>
+      </c>
+      <c r="T11">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>0.97</v>
+      </c>
+      <c r="Y11">
+        <v>0.91</v>
+      </c>
+      <c r="Z11">
+        <v>0.94</v>
+      </c>
+      <c r="AA11">
+        <v>1722</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11">
+        <v>0.91</v>
+      </c>
+      <c r="AD11">
+        <v>0.91</v>
+      </c>
+      <c r="AE11">
+        <v>0.91</v>
+      </c>
+      <c r="AF11">
+        <v>1863</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>0.96</v>
+      </c>
+      <c r="AI11">
+        <v>0.95</v>
+      </c>
+      <c r="AJ11">
+        <v>0.96</v>
+      </c>
+      <c r="AK11">
+        <v>2000</v>
+      </c>
+      <c r="AL11">
+        <v>2</v>
+      </c>
+      <c r="AM11">
+        <v>0.92</v>
+      </c>
+      <c r="AN11">
+        <v>0.95</v>
+      </c>
+      <c r="AO11">
+        <v>0.94</v>
+      </c>
+      <c r="AP11">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="C12">
+        <v>1.4147000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.9234</v>
+      </c>
+      <c r="E12">
+        <v>1.2950999999999999</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.9052</v>
+      </c>
+      <c r="H12">
+        <v>1.4521999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J12">
+        <v>1.3432999999999999</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="M12">
+        <v>1.3037000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.95820000000000005</v>
+      </c>
+      <c r="O12">
+        <v>1.1588000000000001</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.69920000000000004</v>
+      </c>
+      <c r="S12">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="T12">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <v>0.92</v>
+      </c>
+      <c r="Y12">
+        <v>0.99</v>
+      </c>
+      <c r="Z12">
+        <v>0.95</v>
+      </c>
+      <c r="AA12">
+        <v>1685</v>
+      </c>
+      <c r="AB12">
+        <v>3</v>
+      </c>
+      <c r="AC12">
+        <v>0.92</v>
+      </c>
+      <c r="AD12">
+        <v>0.93</v>
+      </c>
+      <c r="AE12">
+        <v>0.93</v>
+      </c>
+      <c r="AF12">
+        <v>1855</v>
+      </c>
+      <c r="AG12">
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <v>0.97</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0.98</v>
+      </c>
+      <c r="AK12">
+        <v>2013</v>
+      </c>
+      <c r="AL12">
+        <v>3</v>
+      </c>
+      <c r="AM12">
+        <v>0.95</v>
+      </c>
+      <c r="AN12">
+        <v>0.97</v>
+      </c>
+      <c r="AO12">
+        <v>0.96</v>
+      </c>
+      <c r="AP12">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="C13">
+        <v>1.3657999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E13">
+        <v>1.2444999999999999</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="H13">
+        <v>1.4101999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.96440000000000003</v>
+      </c>
+      <c r="J13">
+        <v>1.2635000000000001</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="M13">
+        <v>1.2808999999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O13">
+        <v>1.1678999999999999</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.6593</v>
+      </c>
+      <c r="S13">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="T13">
+        <v>0.69610000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="E14">
+        <v>1.103</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="H14">
+        <v>1.3401000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.97550000000000003</v>
+      </c>
+      <c r="J14">
+        <v>1.1668000000000001</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="M14">
+        <v>1.2211000000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="O14">
+        <v>1.1749000000000001</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="S14">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="T14">
+        <v>0.62909999999999999</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>0.97</v>
+      </c>
+      <c r="AA14">
+        <v>6771</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0.95</v>
+      </c>
+      <c r="AF14">
+        <v>7356</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ14">
+        <v>0.98</v>
+      </c>
+      <c r="AK14">
+        <v>7897</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>0.97</v>
+      </c>
+      <c r="AP14">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="C15">
+        <v>1.2665</v>
+      </c>
+      <c r="D15">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="E15">
+        <v>1.1073</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.3161</v>
+      </c>
+      <c r="I15">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="J15">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="M15">
+        <v>1.2313000000000001</v>
+      </c>
+      <c r="N15">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="O15">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>0.9375</v>
+      </c>
+      <c r="R15">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="S15">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="T15">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15">
+        <v>0.97</v>
+      </c>
+      <c r="Y15">
+        <v>0.97</v>
+      </c>
+      <c r="Z15">
+        <v>0.97</v>
+      </c>
+      <c r="AA15">
+        <v>6771</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC15">
+        <v>0.95</v>
+      </c>
+      <c r="AD15">
+        <v>0.95</v>
+      </c>
+      <c r="AE15">
+        <v>0.95</v>
+      </c>
+      <c r="AF15">
+        <v>7356</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH15">
+        <v>0.98</v>
+      </c>
+      <c r="AI15">
+        <v>0.98</v>
+      </c>
+      <c r="AJ15">
+        <v>0.98</v>
+      </c>
+      <c r="AK15">
+        <v>7897</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM15">
+        <v>0.97</v>
+      </c>
+      <c r="AN15">
+        <v>0.97</v>
+      </c>
+      <c r="AO15">
+        <v>0.97</v>
+      </c>
+      <c r="AP15">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="C16">
+        <v>1.254</v>
+      </c>
+      <c r="D16">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="E16">
+        <v>1.0731999999999999</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H16">
+        <v>1.3168</v>
+      </c>
+      <c r="I16">
+        <v>0.96330000000000005</v>
+      </c>
+      <c r="J16">
+        <v>1.1802999999999999</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>0.9</v>
+      </c>
+      <c r="M16">
+        <v>1.1546000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>0.9405</v>
+      </c>
+      <c r="R16">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="S16">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="W16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <v>0.97</v>
+      </c>
+      <c r="Y16">
+        <v>0.97</v>
+      </c>
+      <c r="Z16">
+        <v>0.97</v>
+      </c>
+      <c r="AA16">
+        <v>6771</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16">
+        <v>0.95</v>
+      </c>
+      <c r="AD16">
+        <v>0.95</v>
+      </c>
+      <c r="AE16">
+        <v>0.95</v>
+      </c>
+      <c r="AF16">
+        <v>7356</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16">
+        <v>0.98</v>
+      </c>
+      <c r="AI16">
+        <v>0.98</v>
+      </c>
+      <c r="AJ16">
+        <v>0.98</v>
+      </c>
+      <c r="AK16">
+        <v>7897</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM16">
+        <v>0.97</v>
+      </c>
+      <c r="AN16">
+        <v>0.97</v>
+      </c>
+      <c r="AO16">
+        <v>0.97</v>
+      </c>
+      <c r="AP16">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="C18">
+        <v>1.1632</v>
+      </c>
+      <c r="D18">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="E18">
+        <v>1.0071000000000001</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="H18">
+        <v>1.3694</v>
+      </c>
+      <c r="I18">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="J18">
+        <v>1.1936</v>
+      </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="M18">
+        <v>1.1959</v>
+      </c>
+      <c r="N18">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="R18">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="S18">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="T18">
+        <v>0.5726</v>
+      </c>
+      <c r="W18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8"/>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="C19">
+        <v>1.1983999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="E19">
+        <v>1.0667</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="H19">
+        <v>1.2777000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="J19">
+        <v>1.1591</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="M19">
+        <v>1.1028</v>
+      </c>
+      <c r="N19">
+        <v>0.94889999999999997</v>
+      </c>
+      <c r="O19">
+        <v>0.93779999999999997</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>0.9375</v>
+      </c>
+      <c r="R19">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="S19">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="T19">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="W19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0.8851</v>
+      </c>
+      <c r="C20">
+        <v>1.2105999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="H20">
+        <v>1.2714000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.9647</v>
+      </c>
+      <c r="J20">
+        <v>1.2535000000000001</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="M20">
+        <v>1.0584</v>
+      </c>
+      <c r="N20">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.9768</v>
+      </c>
+      <c r="P20">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>0.93969999999999998</v>
+      </c>
+      <c r="R20">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="S20">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="T20">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="W20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="C21">
+        <v>1.1291</v>
+      </c>
+      <c r="D21">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="E21">
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.9748</v>
+      </c>
+      <c r="J21">
+        <v>1.0823</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>0.89990000000000003</v>
+      </c>
+      <c r="M21">
+        <v>1.0561</v>
+      </c>
+      <c r="N21">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="O21">
+        <v>1.012</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>0.94</v>
+      </c>
+      <c r="R21">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="S21">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="T21">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0.94</v>
+      </c>
+      <c r="Y21">
+        <v>0.97</v>
+      </c>
+      <c r="Z21">
+        <v>0.95</v>
+      </c>
+      <c r="AA21">
+        <v>74</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0.33</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>0.5</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0.67</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>0.8</v>
+      </c>
+      <c r="AK21">
+        <v>2</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0.67</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0.8</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="C22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="E22">
+        <v>1.0987</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H22">
+        <v>1.2089000000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="J22">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="M22">
+        <v>1.0645</v>
+      </c>
+      <c r="N22">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.97</v>
+      </c>
+      <c r="P22">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>0.94130000000000003</v>
+      </c>
+      <c r="R22">
+        <v>0.59160000000000001</v>
+      </c>
+      <c r="S22">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="T22">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0.99</v>
+      </c>
+      <c r="Y22">
+        <v>0.96</v>
+      </c>
+      <c r="Z22">
+        <v>0.98</v>
+      </c>
+      <c r="AA22">
+        <v>387</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0.93</v>
+      </c>
+      <c r="AD22">
+        <v>0.95</v>
+      </c>
+      <c r="AE22">
+        <v>0.94</v>
+      </c>
+      <c r="AF22">
+        <v>459</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0.91</v>
+      </c>
+      <c r="AI22">
+        <v>0.91</v>
+      </c>
+      <c r="AJ22">
+        <v>0.91</v>
+      </c>
+      <c r="AK22">
+        <v>459</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
+        <v>0.97</v>
+      </c>
+      <c r="AN22">
+        <v>0.92</v>
+      </c>
+      <c r="AO22">
+        <v>0.94</v>
+      </c>
+      <c r="AP22">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.1117999999999999</v>
+      </c>
+      <c r="D23">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="E23">
+        <v>1.0179</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="H23">
+        <v>1.1191</v>
+      </c>
+      <c r="I23">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="J23">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="M23">
+        <v>1.0528999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="R23">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="S23">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="T23">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>0.92</v>
+      </c>
+      <c r="Y23">
+        <v>0.82</v>
+      </c>
+      <c r="Z23">
+        <v>0.87</v>
+      </c>
+      <c r="AA23">
+        <v>297</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>0.96</v>
+      </c>
+      <c r="AD23">
+        <v>0.9</v>
+      </c>
+      <c r="AE23">
+        <v>0.93</v>
+      </c>
+      <c r="AF23">
+        <v>1836</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AH23">
+        <v>0.98</v>
+      </c>
+      <c r="AI23">
+        <v>0.95</v>
+      </c>
+      <c r="AJ23">
+        <v>0.96</v>
+      </c>
+      <c r="AK23">
+        <v>1989</v>
+      </c>
+      <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23">
+        <v>0.97</v>
+      </c>
+      <c r="AN23">
+        <v>0.94</v>
+      </c>
+      <c r="AO23">
+        <v>0.96</v>
+      </c>
+      <c r="AP23">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="C24">
+        <v>1.0895999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="H24">
+        <v>1.1708000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="J24">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
+      </c>
+      <c r="L24">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="M24">
+        <v>0.97409999999999997</v>
+      </c>
+      <c r="N24">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="R24">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="S24">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="X24">
+        <v>0.97</v>
+      </c>
+      <c r="Y24">
+        <v>0.99</v>
+      </c>
+      <c r="Z24">
+        <v>0.98</v>
+      </c>
+      <c r="AA24">
+        <v>1713</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>0.43</v>
+      </c>
+      <c r="AD24">
+        <v>0.67</v>
+      </c>
+      <c r="AE24">
+        <v>0.52</v>
+      </c>
+      <c r="AF24">
+        <v>174</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AH24">
+        <v>0.24</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0.39</v>
+      </c>
+      <c r="AK24">
+        <v>21</v>
+      </c>
+      <c r="AL24">
+        <v>3</v>
+      </c>
+      <c r="AM24">
+        <v>0.48</v>
+      </c>
+      <c r="AN24">
+        <v>0.76</v>
+      </c>
+      <c r="AO24">
+        <v>0.59</v>
+      </c>
+      <c r="AP24">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="C25">
+        <v>1.0868</v>
+      </c>
+      <c r="D25">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="E25">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H25">
+        <v>1.1761999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.96519999999999995</v>
+      </c>
+      <c r="J25">
+        <v>0.95030000000000003</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>0.9012</v>
+      </c>
+      <c r="M25">
+        <v>1.0099</v>
+      </c>
+      <c r="N25">
+        <v>0.95920000000000005</v>
+      </c>
+      <c r="O25">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="P25">
+        <v>22</v>
+      </c>
+      <c r="Q25">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="R25">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="S25">
+        <v>0.97050000000000003</v>
+      </c>
+      <c r="T25">
+        <v>0.46650000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1.0705</v>
+      </c>
+      <c r="D26">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="E26">
+        <v>1.08</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="H26">
+        <v>1.1474</v>
+      </c>
+      <c r="I26">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="J26">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
+      <c r="L26">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="M26">
+        <v>1.0345</v>
+      </c>
+      <c r="N26">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="O26">
+        <v>0.8256</v>
+      </c>
+      <c r="P26">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="S26">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="T26">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0.97</v>
+      </c>
+      <c r="AA26">
+        <v>2471</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>0.89</v>
+      </c>
+      <c r="AF26">
+        <v>2471</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0.94</v>
+      </c>
+      <c r="AK26">
+        <v>2471</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>0.93</v>
+      </c>
+      <c r="AP26">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.1263000000000001</v>
+      </c>
+      <c r="D27">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="E27">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="H27">
+        <v>1.1309</v>
+      </c>
+      <c r="I27">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="J27">
+        <v>1.0548999999999999</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
+      </c>
+      <c r="L27">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="M27">
+        <v>0.9708</v>
+      </c>
+      <c r="N27">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="O27">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="W27" t="s">
+        <v>11</v>
+      </c>
+      <c r="X27">
+        <v>0.95</v>
+      </c>
+      <c r="Y27">
+        <v>0.94</v>
+      </c>
+      <c r="Z27">
+        <v>0.94</v>
+      </c>
+      <c r="AA27">
+        <v>2471</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC27">
+        <v>0.66</v>
+      </c>
+      <c r="AD27">
+        <v>0.88</v>
+      </c>
+      <c r="AE27">
+        <v>0.72</v>
+      </c>
+      <c r="AF27">
+        <v>2471</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH27">
+        <v>0.7</v>
+      </c>
+      <c r="AI27">
+        <v>0.97</v>
+      </c>
+      <c r="AJ27">
+        <v>0.77</v>
+      </c>
+      <c r="AK27">
+        <v>2471</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM27">
+        <v>0.77</v>
+      </c>
+      <c r="AN27">
+        <v>0.91</v>
+      </c>
+      <c r="AO27">
+        <v>0.82</v>
+      </c>
+      <c r="AP27">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>0.87870000000000004</v>
+      </c>
+      <c r="C28">
+        <v>1.0565</v>
+      </c>
+      <c r="D28">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E28">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="M28">
+        <v>1.1533</v>
+      </c>
+      <c r="N28">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="O28">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="W28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28">
+        <v>0.97</v>
+      </c>
+      <c r="Y28">
+        <v>0.97</v>
+      </c>
+      <c r="Z28">
+        <v>0.97</v>
+      </c>
+      <c r="AA28">
+        <v>2471</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28">
+        <v>0.91</v>
+      </c>
+      <c r="AD28">
+        <v>0.89</v>
+      </c>
+      <c r="AE28">
+        <v>0.9</v>
+      </c>
+      <c r="AF28">
+        <v>2471</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH28">
+        <v>0.96</v>
+      </c>
+      <c r="AI28">
+        <v>0.94</v>
+      </c>
+      <c r="AJ28">
+        <v>0.95</v>
+      </c>
+      <c r="AK28">
+        <v>2471</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM28">
+        <v>0.94</v>
+      </c>
+      <c r="AN28">
+        <v>0.93</v>
+      </c>
+      <c r="AO28">
+        <v>0.94</v>
+      </c>
+      <c r="AP28">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>0.8901</v>
+      </c>
+      <c r="C29">
+        <v>1.0041</v>
+      </c>
+      <c r="D29">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="E29">
+        <v>0.87819999999999998</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="M29">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="N29">
+        <v>0.9607</v>
+      </c>
+      <c r="O29">
+        <v>0.8468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>0.88429999999999997</v>
+      </c>
+      <c r="C30">
+        <v>1.0763</v>
+      </c>
+      <c r="D30">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="E30">
+        <v>0.8478</v>
+      </c>
+      <c r="K30">
+        <v>27</v>
+      </c>
+      <c r="L30">
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="M30">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="N30">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="O30">
+        <v>0.80530000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="C31">
+        <v>1.0322</v>
+      </c>
+      <c r="D31">
+        <v>0.9415</v>
+      </c>
+      <c r="E31">
+        <v>0.82730000000000004</v>
+      </c>
+      <c r="K31">
+        <v>28</v>
+      </c>
+      <c r="L31">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.9395</v>
+      </c>
+      <c r="N31">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.8266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="C32">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.94610000000000005</v>
+      </c>
+      <c r="E32">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="K32">
+        <v>29</v>
+      </c>
+      <c r="L32">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="M32">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="N32">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="O32">
+        <v>0.77739999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C33">
+        <v>1.0057</v>
+      </c>
+      <c r="D33">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="E33">
+        <v>0.98719999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0.8871</v>
+      </c>
+      <c r="C34">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.9466</v>
+      </c>
+      <c r="E34">
+        <v>0.82069999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="C35">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="E35">
+        <v>0.85350000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>0.88739999999999997</v>
+      </c>
+      <c r="C37">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="D37">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E37">
+        <v>0.76670000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.9446</v>
+      </c>
+      <c r="D38">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="C39">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E39">
+        <v>0.84889999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="C40">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="E40">
+        <v>0.81669999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.9516</v>
+      </c>
+      <c r="D41">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="E41">
+        <v>0.86160000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>0.88629999999999998</v>
+      </c>
+      <c r="C42">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E42">
+        <v>0.82650000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="W18:AP18"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AE1:AL1"/>
+    <mergeCell ref="W6:AP6"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="W1:AD1"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB029C7-D7C8-48F3-B52B-96597867F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14445588-FA4E-4231-B4C7-5EB0C6AB7597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="43">
   <si>
     <t>Epoch</t>
   </si>
@@ -12628,8 +12628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6EFD04-35FE-4714-B618-05220B3E11BA}">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13371,8 +13371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C07B0-C0E7-4E5F-B23B-321E2E74D1F0}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB10"/>
+    <sheetView topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14375,8 +14375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42289D0-AEF1-40B7-BFAC-2986FCFD2C0B}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB10"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15127,8 +15127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15957,10 +15957,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2E949-DD3C-4392-9676-2535014FB9C1}">
-  <dimension ref="A1:AP42"/>
+  <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V3" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18:AP28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AY10" sqref="AR4:AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15998,9 +15998,17 @@
     <col min="36" max="36" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="97.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="89.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="83.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:51">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
@@ -16050,7 +16058,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:51">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -16144,7 +16152,7 @@
       </c>
       <c r="AL2" s="8"/>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:51">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16254,7 +16262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:51">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16363,8 +16371,24 @@
       <c r="AL4">
         <v>0.93201130628585804</v>
       </c>
+      <c r="AR4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:51">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16425,8 +16449,32 @@
       <c r="T5">
         <v>0.84789999999999999</v>
       </c>
+      <c r="AR5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:51">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16509,8 +16557,32 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8"/>
+      <c r="AR6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.36713268690010897</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU6">
+        <v>0.48938199127091703</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AW6">
+        <v>0.52773587572843605</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY6">
+        <v>0.493840800776568</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:51">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16599,8 +16671,32 @@
       <c r="AN7" s="8"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8"/>
+      <c r="AR7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.34980764827781602</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU7">
+        <v>0.31841088853322302</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW7">
+        <v>0.35869597454979102</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY7">
+        <v>0.33565442276023399</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:51">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16721,8 +16817,32 @@
       <c r="AP8" t="s">
         <v>8</v>
       </c>
+      <c r="AR8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0.34980764827781602</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU8">
+        <v>0.27902730510413198</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW8">
+        <v>0.366212036269219</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY8">
+        <v>0.29534238662651702</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:51">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16843,8 +16963,32 @@
       <c r="AP9">
         <v>1895</v>
       </c>
+      <c r="AR9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>0.339970734852024</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU9">
+        <v>0.27615427695811101</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW9">
+        <v>0.34935468621694499</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY9">
+        <v>0.29452097025195501</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:51">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16965,8 +17109,32 @@
       <c r="AP10">
         <v>1910</v>
       </c>
+      <c r="AR10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.33790896725134201</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU10">
+        <v>0.27615427695811101</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW10">
+        <v>0.31427624734785298</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY10">
+        <v>0.28254977520293501</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:51">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17088,7 +17256,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:51">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17210,7 +17378,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:51">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17272,7 +17440,7 @@
         <v>0.69610000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:51">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17370,7 +17538,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:51">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17492,7 +17660,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:51">
       <c r="A16">
         <v>14</v>
       </c>
@@ -19056,31 +19224,35 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="W18:AP18"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AL19:AP19"/>
+  <mergeCells count="28">
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W6:AP6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="AK2:AL2"/>
     <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="W6:AP6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="W1:AD1"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="W18:AP18"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AL19:AP19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Model Results.xlsx
+++ b/Model Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagor\Documents\GitHub\DPinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14445588-FA4E-4231-B4C7-5EB0C6AB7597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C231077-F907-46AB-B6A8-BB2A94EE8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{5C4F79A5-8A2C-48D9-931F-F99D20ECC492}"/>
   </bookViews>
   <sheets>
     <sheet name="OG Epochs" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12632,7 +12632,7 @@
       <selection activeCell="AH1" sqref="AH1:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
@@ -12644,7 +12644,7 @@
     <col min="34" max="34" width="97.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12691,7 +12691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>0.36713268690010897</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>0.34980764827781602</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>0.339970734852024</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>0.33790896725134201</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>0.80830000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>0.59519999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>0.69610000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>0.62909999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>0.53839999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13205,7 +13205,7 @@
         <v>0.46939999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>0.5726</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>0.52149999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>0.46920000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>0.44219999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>0.54220000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13324,7 +13324,7 @@
         <v>0.50719999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>0.46650000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13375,7 +13375,7 @@
       <selection activeCell="AH1" sqref="AH1:AI6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
@@ -13388,7 +13388,7 @@
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0.48938199127091703</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>0.31841088853322302</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0.27902730510413198</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>0.27615427695811101</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0.27615427695811101</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>1.7273000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13808,7 +13808,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>1.2950999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>1.2444999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>1.103</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>1.1073</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>1.0731999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>1.0071000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>1.0667</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>1.0126999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14025,7 +14025,7 @@
         <v>1.0987</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>1.0179</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0.90839999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>0.89119999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>0.87819999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>0.8478</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>0.82730000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>0.84450000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>0.98719999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>0.82069999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14246,7 +14246,7 @@
         <v>0.85350000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>0.76670000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14297,7 +14297,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14314,7 +14314,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>0.86160000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14379,7 +14379,7 @@
       <selection activeCell="AH1" sqref="AH1:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -14389,7 +14389,7 @@
     <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -14433,7 +14433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>0.52773587572843605</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>0.35869597454979102</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14604,7 +14604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>0.366212036269219</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>0.34935468621694499</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14733,7 +14733,7 @@
         <v>0.31427624734785298</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>1.3432999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>1.2635000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>1.1668000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>1.3097000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>1.1802999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>1.1936</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14981,7 +14981,7 @@
         <v>1.1591</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>1.2535000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>1.0823</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>0.90249999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15049,7 +15049,7 @@
         <v>0.98819999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15066,7 +15066,7 @@
         <v>0.99790000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15083,7 +15083,7 @@
         <v>0.95030000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15127,11 +15127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932D75A-AF9B-42B9-BE86-C67B1FC5E62A}">
   <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -15142,7 +15142,7 @@
     <col min="34" max="34" width="83.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>0.493840800776568</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>0.33565442276023399</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>0.29534238662651702</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>0.29452097025195501</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15463,7 +15463,7 @@
         <v>0.28254977520293501</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>1.3731</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>1.1588000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>1.1678999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>1.1749000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15677,7 +15677,7 @@
         <v>0.98229999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>0.99509999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>0.93779999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>0.9768</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>0.85809999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>0.91779999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>0.87090000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>0.8256</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>0.75619999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>0.85199999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>0.8468</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>0.80530000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>0.8266</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15959,32 +15959,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A2E949-DD3C-4392-9676-2535014FB9C1}">
   <dimension ref="A1:AY42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AY10" sqref="AR4:AY10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="48" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4:AY10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
@@ -16008,7 +16008,7 @@
     <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
@@ -16058,7 +16058,7 @@
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="AL2" s="8"/>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16388,7 +16388,7 @@
       </c>
       <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>0.493840800776568</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>0.33565442276023399</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>0.29534238662651702</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>0.29452097025195501</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>0.28254977520293501</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>0.69610000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>7632</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -17866,7 +17866,7 @@
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>16</v>
       </c>
@@ -17956,7 +17956,7 @@
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>17</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>19</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20</v>
       </c>
@@ -18444,7 +18444,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>21</v>
       </c>
@@ -18566,7 +18566,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>0.46650000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>23</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>24</v>
       </c>
@@ -18833,7 +18833,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>25</v>
       </c>
@@ -18925,7 +18925,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>0.8468</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>27</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>0.80530000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>0.8266</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>29</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>0.98719999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>31</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>0.82069999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>32</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>0.85350000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>33</v>
       </c>
@@ -19121,7 +19121,7 @@
         <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>34</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>0.76670000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>35</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>36</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>0.84889999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>37</v>
       </c>
@@ -19189,7 +19189,7 @@
         <v>0.81669999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>38</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>0.86160000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>39</v>
       </c>
